--- a/app/library/MEP-random.xlsx
+++ b/app/library/MEP-random.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mocs698-my.sharepoint.com/personal/jmikec_viktor_ai/Documents/Documents/Viktor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmikec\viktor-apps\ETABS-Connection-Designer\app\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E706166A-177C-496C-8C0B-95D36D0328F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434483F8-E6C1-4B4F-B5F9-D6262C618B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50FE3629-A8BD-4241-9C31-026A70974E59}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50FE3629-A8BD-4241-9C31-026A70974E59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D481E784-F94C-4702-AA7F-CCA2E42276E4}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -616,17 +616,20 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
-        <v>90.343774109497943</v>
-      </c>
-      <c r="G2" s="1">
-        <v>53.187519220170145</v>
-      </c>
-      <c r="H2" s="1">
-        <v>48.202406299943583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -639,17 +642,20 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
-        <v>104.83679965100877</v>
-      </c>
-      <c r="G3" s="1">
-        <v>66.448975695242581</v>
-      </c>
-      <c r="H3" s="1">
-        <v>61.979306532570391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>62</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -662,17 +668,20 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1">
-        <v>126.63523378922596</v>
-      </c>
-      <c r="G4" s="1">
-        <v>68.562194252613992</v>
-      </c>
-      <c r="H4" s="1">
-        <v>68.877913461989252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>127</v>
+      </c>
+      <c r="G4">
+        <v>69</v>
+      </c>
+      <c r="H4">
+        <v>69</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -685,17 +694,20 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
-        <v>140.1778378831867</v>
-      </c>
-      <c r="G5" s="1">
-        <v>91.953008646146344</v>
-      </c>
-      <c r="H5" s="1">
-        <v>81.931128396051108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
+        <v>92</v>
+      </c>
+      <c r="H5">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -708,17 +720,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
-        <v>140.51292371402641</v>
-      </c>
-      <c r="G6" s="1">
-        <v>77.369974532141597</v>
-      </c>
-      <c r="H6" s="1">
-        <v>86.555946857778224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>141</v>
+      </c>
+      <c r="G6">
+        <v>77</v>
+      </c>
+      <c r="H6">
+        <v>87</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -731,17 +746,20 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1">
-        <v>152.45138316394966</v>
-      </c>
-      <c r="G7" s="1">
-        <v>107.30084323984882</v>
-      </c>
-      <c r="H7" s="1">
-        <v>118.68919384351253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>152</v>
+      </c>
+      <c r="G7">
+        <v>107</v>
+      </c>
+      <c r="H7">
+        <v>119</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -754,17 +772,20 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1">
-        <v>156.28535616756784</v>
-      </c>
-      <c r="G8" s="1">
-        <v>145.878905032098</v>
-      </c>
-      <c r="H8" s="1">
-        <v>134.05924911981214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>156</v>
+      </c>
+      <c r="G8">
+        <v>146</v>
+      </c>
+      <c r="H8">
+        <v>134</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -777,17 +798,20 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1">
-        <v>167.54879104232603</v>
-      </c>
-      <c r="G9" s="1">
-        <v>131.07660693261946</v>
-      </c>
-      <c r="H9" s="1">
-        <v>123.33324888595644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>168</v>
+      </c>
+      <c r="G9">
+        <v>131</v>
+      </c>
+      <c r="H9">
+        <v>123</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -800,17 +824,20 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1">
-        <v>204.57257423378252</v>
-      </c>
-      <c r="G10" s="1">
-        <v>177.51533153694976</v>
-      </c>
-      <c r="H10" s="1">
-        <v>180.12134867974797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>205</v>
+      </c>
+      <c r="G10">
+        <v>178</v>
+      </c>
+      <c r="H10">
+        <v>180</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -823,17 +850,20 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1">
-        <v>197.94990058551645</v>
-      </c>
-      <c r="G11" s="1">
-        <v>150.85033520382291</v>
-      </c>
-      <c r="H11" s="1">
-        <v>179.85285417323786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>198</v>
+      </c>
+      <c r="G11">
+        <v>151</v>
+      </c>
+      <c r="H11">
+        <v>180</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -846,17 +876,20 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="1">
-        <v>230.0827254043613</v>
-      </c>
-      <c r="G12" s="1">
-        <v>210.29082838608952</v>
-      </c>
-      <c r="H12" s="1">
-        <v>179.57693704848279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>230</v>
+      </c>
+      <c r="G12">
+        <v>210</v>
+      </c>
+      <c r="H12">
+        <v>180</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -869,17 +902,20 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1">
-        <v>244.2811214367018</v>
-      </c>
-      <c r="G13" s="1">
-        <v>203.75953813505174</v>
-      </c>
-      <c r="H13" s="1">
-        <v>199.1634610555769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>244</v>
+      </c>
+      <c r="G13">
+        <v>204</v>
+      </c>
+      <c r="H13">
+        <v>199</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -892,17 +928,20 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1">
-        <v>269.61891791393907</v>
-      </c>
-      <c r="G14" s="1">
-        <v>219.26256526199404</v>
-      </c>
-      <c r="H14" s="1">
-        <v>221.09055737207598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>270</v>
+      </c>
+      <c r="G14">
+        <v>219</v>
+      </c>
+      <c r="H14">
+        <v>221</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -915,17 +954,20 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="1">
-        <v>313.93986474080793</v>
-      </c>
-      <c r="G15" s="1">
-        <v>241.61482314087732</v>
-      </c>
-      <c r="H15" s="1">
-        <v>211.03071453052067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>314</v>
+      </c>
+      <c r="G15">
+        <v>242</v>
+      </c>
+      <c r="H15">
+        <v>211</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -938,17 +980,20 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1">
-        <v>347.7872630371125</v>
-      </c>
-      <c r="G16" s="1">
-        <v>213.53354889035128</v>
-      </c>
-      <c r="H16" s="1">
-        <v>229.88794174109759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>348</v>
+      </c>
+      <c r="G16">
+        <v>214</v>
+      </c>
+      <c r="H16">
+        <v>230</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -961,17 +1006,20 @@
       <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="1">
-        <v>387.40016142761215</v>
-      </c>
-      <c r="G17" s="1">
-        <v>271.46977872034898</v>
-      </c>
-      <c r="H17" s="1">
-        <v>280.34783307525703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>387</v>
+      </c>
+      <c r="G17">
+        <v>271</v>
+      </c>
+      <c r="H17">
+        <v>280</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -984,17 +1032,20 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1">
-        <v>430.66495399328323</v>
-      </c>
-      <c r="G18" s="1">
-        <v>326.91519931061976</v>
-      </c>
-      <c r="H18" s="1">
-        <v>357.21029300639304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>431</v>
+      </c>
+      <c r="G18">
+        <v>327</v>
+      </c>
+      <c r="H18">
+        <v>357</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1007,17 +1058,20 @@
       <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="1">
-        <v>518.6617175887319</v>
-      </c>
-      <c r="G19" s="1">
-        <v>334.07253086023798</v>
-      </c>
-      <c r="H19" s="1">
-        <v>367.17281874316456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>519</v>
+      </c>
+      <c r="G19">
+        <v>334</v>
+      </c>
+      <c r="H19">
+        <v>367</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1030,17 +1084,20 @@
       <c r="D20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1">
-        <v>545.87795924015234</v>
-      </c>
-      <c r="G20" s="1">
-        <v>418.07167437664714</v>
-      </c>
-      <c r="H20" s="1">
-        <v>382.03022118087165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>546</v>
+      </c>
+      <c r="G20">
+        <v>418</v>
+      </c>
+      <c r="H20">
+        <v>382</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1053,17 +1110,20 @@
       <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="1">
-        <v>501.85437489072274</v>
-      </c>
-      <c r="G21" s="1">
-        <v>495.42576291395574</v>
-      </c>
-      <c r="H21" s="1">
-        <v>432.39476836256358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>502</v>
+      </c>
+      <c r="G21">
+        <v>495</v>
+      </c>
+      <c r="H21">
+        <v>432</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1076,17 +1136,20 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="1">
-        <v>558.9032773229784</v>
-      </c>
-      <c r="G22" s="1">
-        <v>663.17499782857033</v>
-      </c>
-      <c r="H22" s="1">
-        <v>486.54253436235638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>559</v>
+      </c>
+      <c r="G22">
+        <v>663</v>
+      </c>
+      <c r="H22">
+        <v>487</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1099,17 +1162,20 @@
       <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="1">
-        <v>488.27646881648542</v>
-      </c>
-      <c r="G23" s="1">
-        <v>584.06109227019033</v>
-      </c>
-      <c r="H23" s="1">
-        <v>479.78285125499247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>488</v>
+      </c>
+      <c r="G23">
+        <v>584</v>
+      </c>
+      <c r="H23">
+        <v>480</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1122,17 +1188,20 @@
       <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="1">
-        <v>648.16899516086119</v>
-      </c>
-      <c r="G24" s="1">
-        <v>996.23154783475331</v>
-      </c>
-      <c r="H24" s="1">
-        <v>777.78392427540302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>648</v>
+      </c>
+      <c r="G24">
+        <v>996</v>
+      </c>
+      <c r="H24">
+        <v>778</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1145,17 +1214,20 @@
       <c r="D25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="1">
-        <v>492.48145885544812</v>
-      </c>
-      <c r="G25" s="1">
-        <v>718.76396215351758</v>
-      </c>
-      <c r="H25" s="1">
-        <v>519.73839609428023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>492</v>
+      </c>
+      <c r="G25">
+        <v>719</v>
+      </c>
+      <c r="H25">
+        <v>520</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1168,17 +1240,20 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="1">
-        <v>726.24979819241639</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1065.8765979514462</v>
-      </c>
-      <c r="H26" s="1">
-        <v>829.38901666152253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>726</v>
+      </c>
+      <c r="G26">
+        <v>1066</v>
+      </c>
+      <c r="H26">
+        <v>829</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1191,17 +1266,20 @@
       <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="1">
-        <v>608.28738651358094</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1083.0880936264587</v>
-      </c>
-      <c r="H27" s="1">
-        <v>934.46989088526595</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>608</v>
+      </c>
+      <c r="G27">
+        <v>1083</v>
+      </c>
+      <c r="H27">
+        <v>934</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1214,17 +1292,20 @@
       <c r="D28" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="1">
-        <v>641.02940460813397</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1286.8326354618061</v>
-      </c>
-      <c r="H28" s="1">
-        <v>894.98269746615108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>641</v>
+      </c>
+      <c r="G28">
+        <v>1287</v>
+      </c>
+      <c r="H28">
+        <v>895</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1237,17 +1318,20 @@
       <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="1">
-        <v>553.33947247989295</v>
-      </c>
-      <c r="G29" s="1">
-        <v>897.12810776256197</v>
-      </c>
-      <c r="H29" s="1">
-        <v>671.5796695537457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>553</v>
+      </c>
+      <c r="G29">
+        <v>897</v>
+      </c>
+      <c r="H29">
+        <v>672</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1260,17 +1344,20 @@
       <c r="D30" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="1">
-        <v>765.6554514154052</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1061.0533522418498</v>
-      </c>
-      <c r="H30" s="1">
-        <v>916.57267136514292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>766</v>
+      </c>
+      <c r="G30">
+        <v>1061</v>
+      </c>
+      <c r="H30">
+        <v>917</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1283,17 +1370,20 @@
       <c r="D31" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="1">
-        <v>738.39237326078182</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1287.6004012233896</v>
-      </c>
-      <c r="H31" s="1">
-        <v>939.46784531520177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>738</v>
+      </c>
+      <c r="G31">
+        <v>1288</v>
+      </c>
+      <c r="H31">
+        <v>939</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1306,17 +1396,20 @@
       <c r="D32" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="1">
-        <v>794.41549209516188</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1283.907534461888</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1089.860324883012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>794</v>
+      </c>
+      <c r="G32">
+        <v>1284</v>
+      </c>
+      <c r="H32">
+        <v>1090</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1329,17 +1422,20 @@
       <c r="D33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="1">
-        <v>876.72720521714837</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1439.9266689693598</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1142.9168679144918</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>877</v>
+      </c>
+      <c r="G33">
+        <v>1440</v>
+      </c>
+      <c r="H33">
+        <v>1143</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1352,17 +1448,20 @@
       <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="1">
-        <v>841.84098355846857</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2239.2891933394812</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1493.0088881940192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>842</v>
+      </c>
+      <c r="G34">
+        <v>2239</v>
+      </c>
+      <c r="H34">
+        <v>1493</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1375,17 +1474,20 @@
       <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="1">
-        <v>796.88140866269271</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1975.8364535847647</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1654.654249325718</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>797</v>
+      </c>
+      <c r="G35">
+        <v>1976</v>
+      </c>
+      <c r="H35">
+        <v>1655</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1398,17 +1500,20 @@
       <c r="D36" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="1">
-        <v>824.26944574956599</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2516.5575186534843</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1780.4381320917084</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>824</v>
+      </c>
+      <c r="G36">
+        <v>2517</v>
+      </c>
+      <c r="H36">
+        <v>1780</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1421,17 +1526,20 @@
       <c r="D37" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="1">
-        <v>1383.6085917870689</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2439.5738883863237</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2285.3399944292619</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1384</v>
+      </c>
+      <c r="G37">
+        <v>2440</v>
+      </c>
+      <c r="H37">
+        <v>2285</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1444,17 +1552,20 @@
       <c r="D38" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="1">
-        <v>1340.8327530089277</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2118.6363590269748</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2391.8597349271936</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1341</v>
+      </c>
+      <c r="G38">
+        <v>2119</v>
+      </c>
+      <c r="H38">
+        <v>2392</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1467,17 +1578,20 @@
       <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="1">
-        <v>1193.104796668835</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2639.1966095744256</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2399.6521003848252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1193</v>
+      </c>
+      <c r="G39">
+        <v>2639</v>
+      </c>
+      <c r="H39">
+        <v>2400</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1490,17 +1604,20 @@
       <c r="D40" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="1">
-        <v>1235.1941912815896</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2894.499249951301</v>
-      </c>
-      <c r="H40" s="1">
-        <v>2843.1075202231982</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>1235</v>
+      </c>
+      <c r="G40">
+        <v>2894</v>
+      </c>
+      <c r="H40">
+        <v>2843</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1513,17 +1630,20 @@
       <c r="D41" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="1">
-        <v>1312.2322780928864</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2670.1077471033309</v>
-      </c>
-      <c r="H41" s="1">
-        <v>2957.210060681934</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1312</v>
+      </c>
+      <c r="G41">
+        <v>2670</v>
+      </c>
+      <c r="H41">
+        <v>2957</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1536,17 +1656,20 @@
       <c r="D42" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="1">
-        <v>1379.9404239867322</v>
-      </c>
-      <c r="G42" s="1">
-        <v>3146.8637351631669</v>
-      </c>
-      <c r="H42" s="1">
-        <v>3479.8319653100175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>1380</v>
+      </c>
+      <c r="G42">
+        <v>3147</v>
+      </c>
+      <c r="H42">
+        <v>3480</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1559,17 +1682,20 @@
       <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="1">
-        <v>88.710070276168409</v>
-      </c>
-      <c r="G43" s="1">
-        <v>50.190727385013716</v>
-      </c>
-      <c r="H43" s="1">
-        <v>51.41258716223399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>89</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>51</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1582,17 +1708,20 @@
       <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="1">
-        <v>95.027004963599182</v>
-      </c>
-      <c r="G44" s="1">
-        <v>58.799895140309729</v>
-      </c>
-      <c r="H44" s="1">
-        <v>66.392011313085646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>95</v>
+      </c>
+      <c r="G44">
+        <v>59</v>
+      </c>
+      <c r="H44">
+        <v>66</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1605,17 +1734,20 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1">
-        <v>111.40034327023236</v>
-      </c>
-      <c r="G45" s="1">
-        <v>75.87503112925549</v>
-      </c>
-      <c r="H45" s="1">
-        <v>69.481759867099768</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>111</v>
+      </c>
+      <c r="G45">
+        <v>76</v>
+      </c>
+      <c r="H45">
+        <v>69</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1628,17 +1760,20 @@
       <c r="D46" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="1">
-        <v>126.22010837917651</v>
-      </c>
-      <c r="G46" s="1">
-        <v>91.943236712122143</v>
-      </c>
-      <c r="H46" s="1">
-        <v>84.468915592217598</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>126</v>
+      </c>
+      <c r="G46">
+        <v>92</v>
+      </c>
+      <c r="H46">
+        <v>84</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1651,17 +1786,20 @@
       <c r="D47" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="1">
-        <v>140.30111591383437</v>
-      </c>
-      <c r="G47" s="1">
-        <v>94.306275627300749</v>
-      </c>
-      <c r="H47" s="1">
-        <v>91.959585503234194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>140</v>
+      </c>
+      <c r="G47">
+        <v>94</v>
+      </c>
+      <c r="H47">
+        <v>92</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1674,17 +1812,20 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="1">
-        <v>155.74369575949441</v>
-      </c>
-      <c r="G48" s="1">
-        <v>119.14468400308735</v>
-      </c>
-      <c r="H48" s="1">
-        <v>120.27846108177326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>156</v>
+      </c>
+      <c r="G48">
+        <v>119</v>
+      </c>
+      <c r="H48">
+        <v>120</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1697,17 +1838,20 @@
       <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="1">
-        <v>174.19695994495234</v>
-      </c>
-      <c r="G49" s="1">
-        <v>127.85588634734728</v>
-      </c>
-      <c r="H49" s="1">
-        <v>151.18935152230929</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>174</v>
+      </c>
+      <c r="G49">
+        <v>128</v>
+      </c>
+      <c r="H49">
+        <v>151</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1720,17 +1864,20 @@
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="1">
-        <v>162.13563205530082</v>
-      </c>
-      <c r="G50" s="1">
-        <v>143.8676371669462</v>
-      </c>
-      <c r="H50" s="1">
-        <v>127.57620430307126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>162</v>
+      </c>
+      <c r="G50">
+        <v>144</v>
+      </c>
+      <c r="H50">
+        <v>128</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1743,17 +1890,20 @@
       <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="1">
-        <v>203.87909692489293</v>
-      </c>
-      <c r="G51" s="1">
-        <v>197.55442938399321</v>
-      </c>
-      <c r="H51" s="1">
-        <v>189.20318991086128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>204</v>
+      </c>
+      <c r="G51">
+        <v>198</v>
+      </c>
+      <c r="H51">
+        <v>189</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1766,17 +1916,20 @@
       <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="1">
-        <v>219.32107054937242</v>
-      </c>
-      <c r="G52" s="1">
-        <v>193.1655782656307</v>
-      </c>
-      <c r="H52" s="1">
-        <v>199.84304080938517</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>219</v>
+      </c>
+      <c r="G52">
+        <v>193</v>
+      </c>
+      <c r="H52">
+        <v>200</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1789,17 +1942,20 @@
       <c r="D53" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="1">
-        <v>244.58106954383425</v>
-      </c>
-      <c r="G53" s="1">
-        <v>219.30739913345096</v>
-      </c>
-      <c r="H53" s="1">
-        <v>218.34195069047928</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>245</v>
+      </c>
+      <c r="G53">
+        <v>219</v>
+      </c>
+      <c r="H53">
+        <v>218</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1812,17 +1968,20 @@
       <c r="D54" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="1">
-        <v>294.78452302833068</v>
-      </c>
-      <c r="G54" s="1">
-        <v>246.15729898624667</v>
-      </c>
-      <c r="H54" s="1">
-        <v>237.16307865214395</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>295</v>
+      </c>
+      <c r="G54">
+        <v>246</v>
+      </c>
+      <c r="H54">
+        <v>237</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1835,17 +1994,20 @@
       <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="1">
-        <v>301.10283702955144</v>
-      </c>
-      <c r="G55" s="1">
-        <v>282.02551170414796</v>
-      </c>
-      <c r="H55" s="1">
-        <v>252.06581568749317</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>301</v>
+      </c>
+      <c r="G55">
+        <v>282</v>
+      </c>
+      <c r="H55">
+        <v>252</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1858,17 +2020,20 @@
       <c r="D56" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="1">
-        <v>314.89681254809716</v>
-      </c>
-      <c r="G56" s="1">
-        <v>320.30660069594109</v>
-      </c>
-      <c r="H56" s="1">
-        <v>293.90159661037956</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>315</v>
+      </c>
+      <c r="G56">
+        <v>320</v>
+      </c>
+      <c r="H56">
+        <v>294</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1881,17 +2046,20 @@
       <c r="D57" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="1">
-        <v>342.22483685466091</v>
-      </c>
-      <c r="G57" s="1">
-        <v>347.10114542574001</v>
-      </c>
-      <c r="H57" s="1">
-        <v>328.04555476306882</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>342</v>
+      </c>
+      <c r="G57">
+        <v>347</v>
+      </c>
+      <c r="H57">
+        <v>328</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1904,17 +2072,20 @@
       <c r="D58" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="1">
-        <v>382.29887450318267</v>
-      </c>
-      <c r="G58" s="1">
-        <v>385.26234393861694</v>
-      </c>
-      <c r="H58" s="1">
-        <v>323.18447763135896</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>382</v>
+      </c>
+      <c r="G58">
+        <v>385</v>
+      </c>
+      <c r="H58">
+        <v>323</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1927,17 +2098,20 @@
       <c r="D59" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="1">
-        <v>397.75157190252327</v>
-      </c>
-      <c r="G59" s="1">
-        <v>422.45191718065996</v>
-      </c>
-      <c r="H59" s="1">
-        <v>367.23067416196687</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>398</v>
+      </c>
+      <c r="G59">
+        <v>422</v>
+      </c>
+      <c r="H59">
+        <v>367</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1950,17 +2124,20 @@
       <c r="D60" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="1">
-        <v>498.60413839663988</v>
-      </c>
-      <c r="G60" s="1">
-        <v>527.95165228718611</v>
-      </c>
-      <c r="H60" s="1">
-        <v>474.81913146027603</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>499</v>
+      </c>
+      <c r="G60">
+        <v>528</v>
+      </c>
+      <c r="H60">
+        <v>475</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1973,17 +2150,20 @@
       <c r="D61" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="1">
-        <v>527.18274065230366</v>
-      </c>
-      <c r="G61" s="1">
-        <v>501.35729565672017</v>
-      </c>
-      <c r="H61" s="1">
-        <v>392.43111021863194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>527</v>
+      </c>
+      <c r="G61">
+        <v>501</v>
+      </c>
+      <c r="H61">
+        <v>392</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1996,17 +2176,20 @@
       <c r="D62" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="1">
-        <v>526.86794482602181</v>
-      </c>
-      <c r="G62" s="1">
-        <v>619.56142341360783</v>
-      </c>
-      <c r="H62" s="1">
-        <v>646.97983711187396</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>527</v>
+      </c>
+      <c r="G62">
+        <v>620</v>
+      </c>
+      <c r="H62">
+        <v>647</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2019,17 +2202,20 @@
       <c r="D63" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="1">
-        <v>659.48226999331177</v>
-      </c>
-      <c r="G63" s="1">
-        <v>720.15643790309889</v>
-      </c>
-      <c r="H63" s="1">
-        <v>743.26221732461704</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>659</v>
+      </c>
+      <c r="G63">
+        <v>720</v>
+      </c>
+      <c r="H63">
+        <v>743</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2042,17 +2228,20 @@
       <c r="D64" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="1">
-        <v>702.39618911098785</v>
-      </c>
-      <c r="G64" s="1">
-        <v>773.20632554399788</v>
-      </c>
-      <c r="H64" s="1">
-        <v>703.74676631521049</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>702</v>
+      </c>
+      <c r="G64">
+        <v>773</v>
+      </c>
+      <c r="H64">
+        <v>704</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2065,17 +2254,20 @@
       <c r="D65" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="1">
-        <v>709.8460503797204</v>
-      </c>
-      <c r="G65" s="1">
-        <v>968.93786196891028</v>
-      </c>
-      <c r="H65" s="1">
-        <v>792.82789822312691</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>710</v>
+      </c>
+      <c r="G65">
+        <v>969</v>
+      </c>
+      <c r="H65">
+        <v>793</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2088,17 +2280,20 @@
       <c r="D66" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="1">
-        <v>684.29997459935726</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1095.2672931666045</v>
-      </c>
-      <c r="H66" s="1">
-        <v>903.25095459125703</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>684</v>
+      </c>
+      <c r="G66">
+        <v>1095</v>
+      </c>
+      <c r="H66">
+        <v>903</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2111,17 +2306,20 @@
       <c r="D67" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="1">
-        <v>695.06987196157252</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1170.8455966220822</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1137.212860032048</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>695</v>
+      </c>
+      <c r="G67">
+        <v>1171</v>
+      </c>
+      <c r="H67">
+        <v>1137</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2134,17 +2332,20 @@
       <c r="D68" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="1">
-        <v>634.53427464366303</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1319.2730112397012</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1079.5779462329715</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>635</v>
+      </c>
+      <c r="G68">
+        <v>1319</v>
+      </c>
+      <c r="H68">
+        <v>1080</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2157,17 +2358,20 @@
       <c r="D69" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="1">
-        <v>598.7720447524182</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1737.0713420321106</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1143.4895393432948</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>599</v>
+      </c>
+      <c r="G69">
+        <v>1737</v>
+      </c>
+      <c r="H69">
+        <v>1143</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2180,17 +2384,20 @@
       <c r="D70" t="s">
         <v>34</v>
       </c>
-      <c r="F70" s="1">
-        <v>784.01125838219878</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1245.4974049038437</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1333.2596012778502</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>784</v>
+      </c>
+      <c r="G70">
+        <v>1245</v>
+      </c>
+      <c r="H70">
+        <v>1333</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2203,17 +2410,20 @@
       <c r="D71" t="s">
         <v>35</v>
       </c>
-      <c r="F71" s="1">
-        <v>714.95695227183489</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1678.4899505964347</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1178.4491657732599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>715</v>
+      </c>
+      <c r="G71">
+        <v>1678</v>
+      </c>
+      <c r="H71">
+        <v>1178</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2226,17 +2436,20 @@
       <c r="D72" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="1">
-        <v>837.42420601294418</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1823.2170255442695</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1306.3997185521162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>837</v>
+      </c>
+      <c r="G72">
+        <v>1823</v>
+      </c>
+      <c r="H72">
+        <v>1306</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2249,17 +2462,20 @@
       <c r="D73" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="1">
-        <v>786.54991925894149</v>
-      </c>
-      <c r="G73" s="1">
-        <v>2142.4959420844448</v>
-      </c>
-      <c r="H73" s="1">
-        <v>1586.7368977884498</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>787</v>
+      </c>
+      <c r="G73">
+        <v>2142</v>
+      </c>
+      <c r="H73">
+        <v>1587</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2272,17 +2488,20 @@
       <c r="D74" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="1">
-        <v>1091.0126230468184</v>
-      </c>
-      <c r="G74" s="1">
-        <v>2062.8743443293388</v>
-      </c>
-      <c r="H74" s="1">
-        <v>2057.0354824923661</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>1091</v>
+      </c>
+      <c r="G74">
+        <v>2063</v>
+      </c>
+      <c r="H74">
+        <v>2057</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2295,17 +2514,20 @@
       <c r="D75" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="1">
-        <v>1029.3481355955539</v>
-      </c>
-      <c r="G75" s="1">
-        <v>2676.1244189303766</v>
-      </c>
-      <c r="H75" s="1">
-        <v>2447.0409305130947</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>1029</v>
+      </c>
+      <c r="G75">
+        <v>2676</v>
+      </c>
+      <c r="H75">
+        <v>2447</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2318,15 +2540,18 @@
       <c r="D76" t="s">
         <v>42</v>
       </c>
-      <c r="F76" s="1">
-        <v>1200.992933855609</v>
-      </c>
-      <c r="G76" s="1">
-        <v>2595.0927176735677</v>
-      </c>
-      <c r="H76" s="1">
-        <v>2622.5757285026557</v>
-      </c>
+      <c r="F76">
+        <v>1201</v>
+      </c>
+      <c r="G76">
+        <v>2595</v>
+      </c>
+      <c r="H76">
+        <v>2623</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
